--- a/InputFiles/CCDI/TC01_CCDI_PHS-Accession-phs000720_Sex-Female_Race-Asian.xlsx
+++ b/InputFiles/CCDI/TC01_CCDI_PHS-Accession-phs000720_Sex-Female_Race-Asian.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\epishinavv\git\Commons_Automation\InputFiles\CCDI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EF72DD4-04E0-4A2C-97B2-6A752D1E4AA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA762364-998C-4D09-885C-ADF2CE774325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
   <sheets>
     <sheet name="startup" sheetId="1" r:id="rId1"/>
@@ -795,8 +795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C538400-E87C-4027-A918-A51DB80B3430}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
